--- a/capiq_data/in_process_data/IQ285544.xlsx
+++ b/capiq_data/in_process_data/IQ285544.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073ECB5-1A65-4AF4-87B9-641302071A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32469AE7-9A75-43E0-BFF0-0FC17DC4F54D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b6fcffd1-7e5a-4f78-9182-fcf50ff0e186"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"731429f9-5306-47af-838c-ea98437c68ec"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,129 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
+    <t>FQ32011</t>
+  </si>
+  <si>
+    <t>FQ42011</t>
   </si>
   <si>
     <t>FQ12012</t>
@@ -636,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40663</v>
+        <v>36925</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>238.24600000000001</v>
       </c>
       <c r="D2">
-        <v>2217</v>
+        <v>3522.3220000000001</v>
       </c>
       <c r="E2">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>842</v>
+        <v>1276.98</v>
       </c>
       <c r="G2">
-        <v>3164</v>
+        <v>2068</v>
       </c>
       <c r="H2">
-        <v>7015</v>
+        <v>4088</v>
       </c>
       <c r="I2">
-        <v>640</v>
+        <v>273</v>
       </c>
       <c r="J2">
-        <v>3595</v>
+        <v>400</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="O2">
-        <v>5888</v>
+        <v>1629</v>
       </c>
       <c r="P2">
-        <v>3595</v>
+        <v>400</v>
       </c>
       <c r="Q2">
-        <v>427</v>
+        <v>558.09400000000005</v>
       </c>
       <c r="R2">
-        <v>40663</v>
+        <v>36925</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>33500</v>
       </c>
       <c r="T2">
-        <v>1127</v>
+        <v>2459</v>
       </c>
       <c r="U2">
-        <v>1557</v>
+        <v>564</v>
       </c>
       <c r="V2">
-        <v>-18</v>
+        <v>970.71900000000005</v>
       </c>
       <c r="W2">
-        <v>-64</v>
+        <v>-32.579000000000001</v>
       </c>
       <c r="X2">
-        <v>420</v>
+        <v>-283.74200000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>99</v>
+        <v>-1.851</v>
       </c>
       <c r="AA2">
-        <v>165</v>
+        <v>238.24600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40754</v>
+        <v>37016</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>2458</v>
+        <v>2127</v>
       </c>
       <c r="E3">
-        <v>241</v>
+        <v>82.191000000000003</v>
       </c>
       <c r="F3">
-        <v>902</v>
+        <v>671</v>
       </c>
       <c r="G3">
-        <v>2652</v>
+        <v>1819.9269999999999</v>
       </c>
       <c r="H3">
-        <v>6500</v>
+        <v>3863.625</v>
       </c>
       <c r="I3">
-        <v>646</v>
+        <v>246.471</v>
       </c>
       <c r="J3">
-        <v>3607</v>
+        <v>400</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1347</v>
+        <v>774.70699999999999</v>
       </c>
       <c r="O3">
-        <v>5875</v>
+        <v>1401.14</v>
       </c>
       <c r="P3">
-        <v>3607</v>
+        <v>400</v>
       </c>
       <c r="Q3">
-        <v>-522</v>
+        <v>-275</v>
       </c>
       <c r="R3">
-        <v>40754</v>
+        <v>37016</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>625</v>
+        <v>2462.4850000000001</v>
       </c>
       <c r="U3">
-        <v>1035</v>
+        <v>288.94600000000003</v>
       </c>
       <c r="V3">
-        <v>241</v>
+        <v>-142</v>
       </c>
       <c r="W3">
-        <v>-63</v>
+        <v>-32</v>
       </c>
       <c r="X3">
-        <v>-678</v>
+        <v>-28</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>231</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40845</v>
+        <v>37107</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>71.241</v>
       </c>
       <c r="D4">
-        <v>2174</v>
+        <v>2192.1109999999999</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>79.167000000000002</v>
       </c>
       <c r="F4">
-        <v>785</v>
+        <v>691.96600000000001</v>
       </c>
       <c r="G4">
-        <v>2616</v>
+        <v>1900.788</v>
       </c>
       <c r="H4">
-        <v>6517</v>
+        <v>4001.9389999999999</v>
       </c>
       <c r="I4">
-        <v>800</v>
+        <v>315.93599999999998</v>
       </c>
       <c r="J4">
-        <v>3602</v>
+        <v>250</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1504</v>
+        <v>999.63099999999997</v>
       </c>
       <c r="O4">
-        <v>5996</v>
+        <v>1472.4739999999999</v>
       </c>
       <c r="P4">
-        <v>3602</v>
+        <v>400</v>
       </c>
       <c r="Q4">
-        <v>-537</v>
+        <v>38.92</v>
       </c>
       <c r="R4">
-        <v>40845</v>
+        <v>37107</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>521</v>
+        <v>2529.4650000000001</v>
       </c>
       <c r="U4">
-        <v>498</v>
+        <v>327.46699999999998</v>
       </c>
       <c r="V4">
-        <v>-129</v>
+        <v>169.08699999999999</v>
       </c>
       <c r="W4">
-        <v>-60</v>
+        <v>-32.444000000000003</v>
       </c>
       <c r="X4">
-        <v>-231</v>
+        <v>-18.776</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-5.569</v>
       </c>
       <c r="AA4">
-        <v>94</v>
+        <v>71.55</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40936</v>
+        <v>37198</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>359</v>
+        <v>90.150999999999996</v>
       </c>
       <c r="D5">
-        <v>3515</v>
+        <v>1906.4839999999999</v>
       </c>
       <c r="E5">
-        <v>218</v>
+        <v>127.152</v>
       </c>
       <c r="F5">
-        <v>2090</v>
+        <v>566.58500000000004</v>
       </c>
       <c r="G5">
-        <v>2368</v>
+        <v>2092.953</v>
       </c>
       <c r="H5">
-        <v>6108</v>
+        <v>4156.741</v>
       </c>
       <c r="I5">
-        <v>540</v>
+        <v>386.77199999999999</v>
       </c>
       <c r="J5">
-        <v>3541</v>
+        <v>250</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1526</v>
+        <v>1100.732</v>
       </c>
       <c r="O5">
-        <v>5970</v>
+        <v>1586.3130000000001</v>
       </c>
       <c r="P5">
-        <v>3598</v>
+        <v>400</v>
       </c>
       <c r="Q5">
-        <v>437</v>
+        <v>-9.6</v>
       </c>
       <c r="R5">
-        <v>40936</v>
+        <v>37198</v>
       </c>
       <c r="S5">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>138</v>
+        <v>2570.4279999999999</v>
       </c>
       <c r="U5">
-        <v>935</v>
+        <v>317.86700000000002</v>
       </c>
       <c r="V5">
-        <v>1172</v>
+        <v>-163.541</v>
       </c>
       <c r="W5">
-        <v>-53.841999999999999</v>
+        <v>-32.353999999999999</v>
       </c>
       <c r="X5">
-        <v>-748</v>
+        <v>-33.317</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="AA5">
-        <v>359</v>
+        <v>90.150999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>41027</v>
+        <v>37289</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2154</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2816</v>
+        <v>2784</v>
       </c>
       <c r="H6">
-        <v>6616</v>
+        <v>5094</v>
       </c>
       <c r="I6">
-        <v>536</v>
+        <v>365</v>
       </c>
       <c r="J6">
-        <v>4543</v>
+        <v>250</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1290</v>
+        <v>1454</v>
       </c>
       <c r="O6">
-        <v>6747</v>
+        <v>2173</v>
       </c>
       <c r="P6">
-        <v>4600</v>
+        <v>400</v>
       </c>
       <c r="Q6">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>41027</v>
+        <v>37289</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>28700</v>
       </c>
       <c r="T6">
-        <v>-131</v>
+        <v>2921</v>
       </c>
       <c r="U6">
-        <v>1286</v>
+        <v>1495</v>
       </c>
       <c r="V6">
-        <v>-183</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1140,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41118</v>
+        <v>37380</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>143</v>
+        <v>49.857999999999997</v>
       </c>
       <c r="D7">
-        <v>2399</v>
+        <v>1798.7070000000001</v>
       </c>
       <c r="E7">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>942</v>
+        <v>621.66099999999994</v>
       </c>
       <c r="G7">
-        <v>2716</v>
+        <v>2504</v>
       </c>
       <c r="H7">
-        <v>6589</v>
+        <v>6079</v>
       </c>
       <c r="I7">
-        <v>624</v>
+        <v>234</v>
       </c>
       <c r="J7">
-        <v>4533</v>
+        <v>248</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1400</v>
+        <v>1032</v>
       </c>
       <c r="O7">
-        <v>6834</v>
+        <v>1608</v>
       </c>
       <c r="P7">
-        <v>4590</v>
+        <v>398</v>
       </c>
       <c r="Q7">
-        <v>-93</v>
+        <v>-154.86600000000001</v>
       </c>
       <c r="R7">
-        <v>41118</v>
+        <v>37380</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-245</v>
+        <v>4471</v>
       </c>
       <c r="U7">
-        <v>1193</v>
+        <v>1255</v>
       </c>
       <c r="V7">
-        <v>388</v>
+        <v>-127.614</v>
       </c>
       <c r="W7">
-        <v>-73</v>
+        <v>-32.426000000000002</v>
       </c>
       <c r="X7">
-        <v>-285</v>
+        <v>-6.843</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AA7">
-        <v>143</v>
+        <v>49.857999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41209</v>
+        <v>37471</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>83.247</v>
       </c>
       <c r="D8">
-        <v>2050</v>
+        <v>1912.4159999999999</v>
       </c>
       <c r="E8">
-        <v>225</v>
+        <v>81.466999999999999</v>
       </c>
       <c r="F8">
-        <v>835</v>
+        <v>672.96799999999996</v>
       </c>
       <c r="G8">
-        <v>2485</v>
+        <v>2585.2449999999999</v>
       </c>
       <c r="H8">
-        <v>6427</v>
+        <v>6138.4560000000001</v>
       </c>
       <c r="I8">
-        <v>732</v>
+        <v>384.35500000000002</v>
       </c>
       <c r="J8">
-        <v>4537</v>
+        <v>248.03200000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1512</v>
+        <v>1038.3989999999999</v>
       </c>
       <c r="O8">
-        <v>6942</v>
+        <v>1603.2560000000001</v>
       </c>
       <c r="P8">
-        <v>4594</v>
+        <v>248.03200000000001</v>
       </c>
       <c r="Q8">
-        <v>-646</v>
+        <v>-28.373999999999999</v>
       </c>
       <c r="R8">
-        <v>41209</v>
+        <v>37471</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-515</v>
+        <v>4535.2</v>
       </c>
       <c r="U8">
-        <v>547</v>
+        <v>1167.038</v>
       </c>
       <c r="V8">
-        <v>-130</v>
+        <v>231.99</v>
       </c>
       <c r="W8">
-        <v>-74</v>
+        <v>-39.137</v>
       </c>
       <c r="X8">
-        <v>-364</v>
+        <v>-178.95400000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="AA8">
-        <v>74</v>
+        <v>83.247</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41307</v>
+        <v>37562</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>411</v>
+        <v>15.775</v>
       </c>
       <c r="D9">
-        <v>3856</v>
+        <v>1767.5650000000001</v>
       </c>
       <c r="E9">
-        <v>203</v>
+        <v>112.11</v>
       </c>
       <c r="F9">
-        <v>2325</v>
+        <v>564.15599999999995</v>
       </c>
       <c r="G9">
-        <v>2205</v>
+        <v>2670.7350000000001</v>
       </c>
       <c r="H9">
-        <v>6019</v>
+        <v>6146.8159999999998</v>
       </c>
       <c r="I9">
-        <v>541</v>
+        <v>411.74</v>
       </c>
       <c r="J9">
-        <v>4536</v>
+        <v>248.05600000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1538</v>
+        <v>1053.04</v>
       </c>
       <c r="O9">
-        <v>7033</v>
+        <v>1621.223</v>
       </c>
       <c r="P9">
-        <v>4536</v>
+        <v>248.05600000000001</v>
       </c>
       <c r="Q9">
-        <v>226</v>
+        <v>-262.608</v>
       </c>
       <c r="R9">
-        <v>41307</v>
+        <v>37562</v>
       </c>
       <c r="S9">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-1014</v>
+        <v>4525.5929999999998</v>
       </c>
       <c r="U9">
-        <v>773</v>
+        <v>885.37699999999995</v>
       </c>
       <c r="V9">
-        <v>1276</v>
+        <v>-232.911</v>
       </c>
       <c r="W9">
-        <v>-69.8</v>
+        <v>-39.216000000000001</v>
       </c>
       <c r="X9">
-        <v>-989</v>
+        <v>-26.006</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>35</v>
+        <v>97.692999999999998</v>
       </c>
       <c r="AA9">
-        <v>411</v>
+        <v>15.775</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41398</v>
+        <v>37653</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2268</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F10">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1904</v>
+        <v>3606</v>
       </c>
       <c r="H10">
-        <v>5776</v>
+        <v>7246</v>
       </c>
       <c r="I10">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="J10">
-        <v>4533</v>
+        <v>547</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="O10">
-        <v>6770</v>
+        <v>2386</v>
       </c>
       <c r="P10">
-        <v>4533</v>
+        <v>547</v>
       </c>
       <c r="Q10">
-        <v>-391</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41398</v>
+        <v>37653</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>28400</v>
       </c>
       <c r="T10">
-        <v>-994</v>
+        <v>4860</v>
       </c>
       <c r="U10">
-        <v>382</v>
+        <v>2262</v>
       </c>
       <c r="V10">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-87</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-112</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1472,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41489</v>
+        <v>37744</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>178</v>
+        <v>97.53</v>
       </c>
       <c r="D11">
-        <v>2516</v>
+        <v>1842.297</v>
       </c>
       <c r="E11">
-        <v>197</v>
+        <v>119.598</v>
       </c>
       <c r="F11">
-        <v>989</v>
+        <v>612.06299999999999</v>
       </c>
       <c r="G11">
-        <v>2098</v>
+        <v>3545.5859999999998</v>
       </c>
       <c r="H11">
-        <v>6072</v>
+        <v>7110.0829999999996</v>
       </c>
       <c r="I11">
-        <v>681</v>
+        <v>367.73500000000001</v>
       </c>
       <c r="J11">
-        <v>4518</v>
+        <v>648.10599999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1513,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="N11">
-        <v>1485</v>
+        <v>1011.6660000000001</v>
       </c>
       <c r="O11">
-        <v>6933</v>
+        <v>2221.5030000000002</v>
       </c>
       <c r="P11">
-        <v>4518</v>
+        <v>648.10599999999999</v>
       </c>
       <c r="Q11">
-        <v>169</v>
+        <v>-17.524000000000001</v>
       </c>
       <c r="R11">
-        <v>41489</v>
+        <v>37744</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>-861</v>
+        <v>4888.58</v>
       </c>
       <c r="U11">
-        <v>551</v>
+        <v>2243.2139999999999</v>
       </c>
       <c r="V11">
-        <v>474</v>
+        <v>-103.764</v>
       </c>
       <c r="W11">
-        <v>-87</v>
+        <v>-52.356000000000002</v>
       </c>
       <c r="X11">
-        <v>-82</v>
+        <v>23.007000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>130.673</v>
       </c>
       <c r="AA11">
-        <v>178</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41580</v>
+        <v>37835</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>92</v>
+        <v>101.959</v>
       </c>
       <c r="D12">
-        <v>2171</v>
+        <v>2014.106</v>
       </c>
       <c r="E12">
-        <v>245</v>
+        <v>105.68899999999999</v>
       </c>
       <c r="F12">
-        <v>857</v>
+        <v>702.22400000000005</v>
       </c>
       <c r="G12">
-        <v>2580</v>
+        <v>3639.7820000000002</v>
       </c>
       <c r="H12">
-        <v>6636</v>
+        <v>7180.2219999999998</v>
       </c>
       <c r="I12">
-        <v>799</v>
+        <v>489.91</v>
       </c>
       <c r="J12">
-        <v>4802</v>
+        <v>648.14400000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1734</v>
+        <v>1111.6400000000001</v>
       </c>
       <c r="O12">
-        <v>7456</v>
+        <v>2304.8609999999999</v>
       </c>
       <c r="P12">
-        <v>5018</v>
+        <v>648.14400000000001</v>
       </c>
       <c r="Q12">
-        <v>-126</v>
+        <v>-4.96</v>
       </c>
       <c r="R12">
-        <v>41580</v>
+        <v>37835</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-820</v>
+        <v>4875.3609999999999</v>
       </c>
       <c r="U12">
-        <v>425</v>
+        <v>2239.7269999999999</v>
       </c>
       <c r="V12">
-        <v>-385</v>
+        <v>190.22</v>
       </c>
       <c r="W12">
-        <v>-87</v>
+        <v>-52.122</v>
       </c>
       <c r="X12">
-        <v>426</v>
+        <v>-121.251</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>92</v>
+        <v>101.959</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41671</v>
+        <v>37926</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>490</v>
+        <v>129.67400000000001</v>
       </c>
       <c r="D13">
-        <v>3818</v>
+        <v>1846.77</v>
       </c>
       <c r="E13">
-        <v>244</v>
+        <v>345.05900000000003</v>
       </c>
       <c r="F13">
-        <v>2183</v>
+        <v>595.45299999999997</v>
       </c>
       <c r="G13">
-        <v>3150</v>
+        <v>3795.1190000000001</v>
       </c>
       <c r="H13">
-        <v>7198</v>
+        <v>7275.7470000000003</v>
       </c>
       <c r="I13">
-        <v>599</v>
+        <v>548.46199999999999</v>
       </c>
       <c r="J13">
-        <v>4774</v>
+        <v>648.17999999999995</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1826</v>
+        <v>1167.472</v>
       </c>
       <c r="O13">
-        <v>7567</v>
+        <v>2365.3719999999998</v>
       </c>
       <c r="P13">
-        <v>4989</v>
+        <v>648.17999999999995</v>
       </c>
       <c r="Q13">
-        <v>1094</v>
+        <v>-421.072</v>
       </c>
       <c r="R13">
-        <v>41671</v>
+        <v>37926</v>
       </c>
       <c r="S13">
-        <v>20800</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>-369</v>
+        <v>4910.375</v>
       </c>
       <c r="U13">
-        <v>1519</v>
+        <v>1818.3910000000001</v>
       </c>
       <c r="V13">
-        <v>1279</v>
+        <v>-238.624</v>
       </c>
       <c r="W13">
-        <v>-88</v>
+        <v>-51.790999999999997</v>
       </c>
       <c r="X13">
-        <v>-78</v>
+        <v>-97.46</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1721,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>490</v>
+        <v>129.67400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41762</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>157</v>
+        <v>387.83699999999999</v>
       </c>
       <c r="D14">
-        <v>2391</v>
+        <v>3230.8270000000002</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="F14">
-        <v>982</v>
+        <v>1879.26</v>
       </c>
       <c r="G14">
-        <v>2585</v>
+        <v>4433</v>
       </c>
       <c r="H14">
-        <v>6663</v>
+        <v>7880</v>
       </c>
       <c r="I14">
-        <v>555</v>
+        <v>428</v>
       </c>
       <c r="J14">
-        <v>4779</v>
+        <v>648</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1515</v>
+        <v>1388</v>
       </c>
       <c r="O14">
-        <v>7272</v>
+        <v>2614</v>
       </c>
       <c r="P14">
-        <v>4993</v>
+        <v>648</v>
       </c>
       <c r="Q14">
-        <v>-607</v>
+        <v>1311.556</v>
       </c>
       <c r="R14">
-        <v>41762</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="T14">
-        <v>-609</v>
+        <v>5266</v>
       </c>
       <c r="U14">
-        <v>912</v>
+        <v>3130</v>
       </c>
       <c r="V14">
-        <v>-89</v>
+        <v>1215.1679999999999</v>
       </c>
       <c r="W14">
-        <v>-99.462999999999994</v>
+        <v>-51.731000000000002</v>
       </c>
       <c r="X14">
-        <v>-383</v>
+        <v>-34.295999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>197.327</v>
       </c>
       <c r="AA14">
-        <v>157</v>
+        <v>387.83699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41853</v>
+        <v>38108</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>188</v>
+        <v>96.637</v>
       </c>
       <c r="D15">
-        <v>2675</v>
+        <v>1978.203</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>123.113</v>
       </c>
       <c r="F15">
-        <v>1044</v>
+        <v>675.654</v>
       </c>
       <c r="G15">
-        <v>2699</v>
+        <v>3302.7840000000001</v>
       </c>
       <c r="H15">
-        <v>6870</v>
+        <v>6696.6090000000004</v>
       </c>
       <c r="I15">
-        <v>622</v>
+        <v>397.66</v>
       </c>
       <c r="J15">
-        <v>4784</v>
+        <v>648.25599999999997</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,37 +1971,37 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1580</v>
+        <v>1119.954</v>
       </c>
       <c r="O15">
-        <v>7373</v>
+        <v>2328.1799999999998</v>
       </c>
       <c r="P15">
-        <v>4998</v>
+        <v>648.25599999999997</v>
       </c>
       <c r="Q15">
-        <v>235</v>
+        <v>-1184.94</v>
       </c>
       <c r="R15">
-        <v>41853</v>
+        <v>38108</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-503</v>
+        <v>4368.4290000000001</v>
       </c>
       <c r="U15">
-        <v>1147</v>
+        <v>1945.4069999999999</v>
       </c>
       <c r="V15">
-        <v>535</v>
+        <v>-170.571</v>
       </c>
       <c r="W15">
-        <v>-99</v>
+        <v>-62.374000000000002</v>
       </c>
       <c r="X15">
-        <v>-102</v>
+        <v>-1004.172</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1887,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>188</v>
+        <v>96.637</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41944</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>132</v>
+        <v>147.952</v>
       </c>
       <c r="D16">
-        <v>2319</v>
+        <v>2210.8319999999999</v>
       </c>
       <c r="E16">
-        <v>274</v>
+        <v>101.44199999999999</v>
       </c>
       <c r="F16">
-        <v>947</v>
+        <v>797.96900000000005</v>
       </c>
       <c r="G16">
-        <v>2849</v>
+        <v>3553.4540000000002</v>
       </c>
       <c r="H16">
-        <v>7149</v>
+        <v>6945.665</v>
       </c>
       <c r="I16">
-        <v>837</v>
+        <v>542.96600000000001</v>
       </c>
       <c r="J16">
-        <v>4769</v>
+        <v>648.29300000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1799</v>
+        <v>1335.2339999999999</v>
       </c>
       <c r="O16">
-        <v>7582</v>
+        <v>2527.748</v>
       </c>
       <c r="P16">
-        <v>4982</v>
+        <v>648.29300000000001</v>
       </c>
       <c r="Q16">
-        <v>-402</v>
+        <v>154.27699999999999</v>
       </c>
       <c r="R16">
-        <v>41944</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-433</v>
+        <v>4417.9170000000004</v>
       </c>
       <c r="U16">
-        <v>745</v>
+        <v>2099.6840000000002</v>
       </c>
       <c r="V16">
-        <v>-76</v>
+        <v>324.99799999999999</v>
       </c>
       <c r="W16">
-        <v>-100</v>
+        <v>-56.712000000000003</v>
       </c>
       <c r="X16">
-        <v>-90</v>
+        <v>-98.37</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>65.332999999999998</v>
       </c>
       <c r="AA16">
-        <v>132</v>
+        <v>147.952</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>42035</v>
+        <v>38290</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>565</v>
+        <v>78.344999999999999</v>
       </c>
       <c r="D17">
-        <v>4069</v>
+        <v>1890.855</v>
       </c>
       <c r="E17">
-        <v>252</v>
+        <v>134.57499999999999</v>
       </c>
       <c r="F17">
-        <v>2414</v>
+        <v>611.404</v>
       </c>
       <c r="G17">
-        <v>3199</v>
+        <v>4083.92</v>
       </c>
       <c r="H17">
-        <v>7476</v>
+        <v>7501.0349999999999</v>
       </c>
       <c r="I17">
-        <v>613</v>
+        <v>622.42700000000002</v>
       </c>
       <c r="J17">
-        <v>4722</v>
+        <v>1146.4829999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1679</v>
+        <v>1321.7819999999999</v>
       </c>
       <c r="O17">
-        <v>7457</v>
+        <v>3041.277</v>
       </c>
       <c r="P17">
-        <v>4722</v>
+        <v>1146.4829999999999</v>
       </c>
       <c r="Q17">
-        <v>936</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="R17">
-        <v>42035</v>
+        <v>38290</v>
       </c>
       <c r="S17">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>19</v>
+        <v>4459.7579999999998</v>
       </c>
       <c r="U17">
-        <v>1681</v>
+        <v>2135.2040000000002</v>
       </c>
       <c r="V17">
-        <v>1416</v>
+        <v>-355.17700000000002</v>
       </c>
       <c r="W17">
-        <v>-100</v>
+        <v>-56.37</v>
       </c>
       <c r="X17">
-        <v>-344</v>
+        <v>447.99799999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2053,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>565</v>
+        <v>78.344999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42126</v>
+        <v>38381</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>382.06599999999997</v>
       </c>
       <c r="D18">
-        <v>2512</v>
+        <v>3328.11</v>
       </c>
       <c r="E18">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>1056</v>
+        <v>1906.182</v>
       </c>
       <c r="G18">
-        <v>2318</v>
+        <v>2684</v>
       </c>
       <c r="H18">
-        <v>6638</v>
+        <v>6089</v>
       </c>
       <c r="I18">
-        <v>639</v>
+        <v>496</v>
       </c>
       <c r="J18">
-        <v>4760</v>
+        <v>1646</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1391</v>
+        <v>1451</v>
       </c>
       <c r="O18">
-        <v>7244</v>
+        <v>3721</v>
       </c>
       <c r="P18">
-        <v>4760</v>
+        <v>1646</v>
       </c>
       <c r="Q18">
-        <v>-1032</v>
+        <v>-973.85699999999997</v>
       </c>
       <c r="R18">
-        <v>42126</v>
+        <v>38381</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="T18">
-        <v>-606</v>
+        <v>2368</v>
       </c>
       <c r="U18">
-        <v>649</v>
+        <v>1161</v>
       </c>
       <c r="V18">
-        <v>-156</v>
+        <v>1133.75</v>
       </c>
       <c r="W18">
-        <v>-146.80000000000001</v>
+        <v>-48.543999999999997</v>
       </c>
       <c r="X18">
-        <v>-781</v>
+        <v>-2020.4559999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>35</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="AA18">
-        <v>250</v>
+        <v>382.06599999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42217</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>203</v>
+        <v>83.265000000000001</v>
       </c>
       <c r="D19">
-        <v>2765</v>
+        <v>1976</v>
       </c>
       <c r="E19">
-        <v>257</v>
+        <v>123.27</v>
       </c>
       <c r="F19">
-        <v>1114</v>
+        <v>684</v>
       </c>
       <c r="G19">
-        <v>2498</v>
+        <v>2245.5279999999998</v>
       </c>
       <c r="H19">
-        <v>6804</v>
+        <v>5701.69</v>
       </c>
       <c r="I19">
-        <v>725</v>
+        <v>505.161</v>
       </c>
       <c r="J19">
-        <v>4759</v>
+        <v>1646.6510000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1570</v>
+        <v>1172.7639999999999</v>
       </c>
       <c r="O19">
-        <v>7451</v>
+        <v>3433.4270000000001</v>
       </c>
       <c r="P19">
-        <v>4759</v>
+        <v>1646.6510000000001</v>
       </c>
       <c r="Q19">
-        <v>131</v>
+        <v>-474.52300000000002</v>
       </c>
       <c r="R19">
-        <v>42217</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-647</v>
+        <v>2268.2629999999999</v>
       </c>
       <c r="U19">
-        <v>780</v>
+        <v>686.23599999999999</v>
       </c>
       <c r="V19">
-        <v>531</v>
+        <v>-213.042</v>
       </c>
       <c r="W19">
-        <v>-146</v>
+        <v>-61.151000000000003</v>
       </c>
       <c r="X19">
-        <v>-310</v>
+        <v>-121.238</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2219,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>202</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42308</v>
+        <v>38563</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>164</v>
+        <v>81.734999999999999</v>
       </c>
       <c r="D20">
-        <v>2482</v>
+        <v>2290</v>
       </c>
       <c r="E20">
-        <v>283</v>
+        <v>120.378</v>
       </c>
       <c r="F20">
-        <v>1031</v>
+        <v>745</v>
       </c>
       <c r="G20">
-        <v>3564</v>
+        <v>2253.951</v>
       </c>
       <c r="H20">
-        <v>7969</v>
+        <v>5760.3549999999996</v>
       </c>
       <c r="I20">
-        <v>913</v>
+        <v>518.96299999999997</v>
       </c>
       <c r="J20">
-        <v>5762</v>
+        <v>1646.7349999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1728</v>
+        <v>1255.4960000000001</v>
       </c>
       <c r="O20">
-        <v>8626</v>
+        <v>3520.277</v>
       </c>
       <c r="P20">
-        <v>5766</v>
+        <v>1646.7349999999999</v>
       </c>
       <c r="Q20">
-        <v>531</v>
+        <v>32.523000000000003</v>
       </c>
       <c r="R20">
-        <v>42308</v>
+        <v>38563</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>-657</v>
+        <v>2240.078</v>
       </c>
       <c r="U20">
-        <v>1311</v>
+        <v>719.096</v>
       </c>
       <c r="V20">
-        <v>-113</v>
+        <v>310.04199999999997</v>
       </c>
       <c r="W20">
-        <v>-146</v>
+        <v>-60.848999999999997</v>
       </c>
       <c r="X20">
-        <v>789</v>
+        <v>-151.762</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>164</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42399</v>
+        <v>38654</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>636</v>
+        <v>-1</v>
       </c>
       <c r="D21">
-        <v>4395</v>
+        <v>1892</v>
       </c>
       <c r="E21">
-        <v>261</v>
+        <v>170.792</v>
       </c>
       <c r="F21">
-        <v>2611</v>
+        <v>606</v>
       </c>
       <c r="G21">
-        <v>4156</v>
+        <v>2248.0070000000001</v>
       </c>
       <c r="H21">
-        <v>8493</v>
+        <v>5801.6769999999997</v>
       </c>
       <c r="I21">
-        <v>668</v>
+        <v>664.89599999999996</v>
       </c>
       <c r="J21">
-        <v>5715</v>
+        <v>1646.819</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1875</v>
+        <v>1364.393</v>
       </c>
       <c r="O21">
-        <v>8751</v>
+        <v>3661.326</v>
       </c>
       <c r="P21">
-        <v>5721</v>
+        <v>1646.819</v>
       </c>
       <c r="Q21">
-        <v>1237</v>
+        <v>-564</v>
       </c>
       <c r="R21">
-        <v>42399</v>
+        <v>38654</v>
       </c>
       <c r="S21">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>-258</v>
+        <v>2140.3510000000001</v>
       </c>
       <c r="U21">
-        <v>2548</v>
+        <v>155.41300000000001</v>
       </c>
       <c r="V21">
-        <v>1607</v>
+        <v>-327</v>
       </c>
       <c r="W21">
-        <v>-145</v>
+        <v>-60</v>
       </c>
       <c r="X21">
-        <v>-256</v>
+        <v>-96</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2385,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>636</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42490</v>
+        <v>38745</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>152</v>
+        <v>519</v>
       </c>
       <c r="D22">
-        <v>2614</v>
+        <v>3542</v>
       </c>
       <c r="E22">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="F22">
-        <v>1054</v>
+        <v>2022</v>
       </c>
       <c r="G22">
-        <v>2991</v>
+        <v>2784</v>
       </c>
       <c r="H22">
-        <v>7426</v>
+        <v>6346</v>
       </c>
       <c r="I22">
-        <v>720</v>
+        <v>535</v>
       </c>
       <c r="J22">
-        <v>5718</v>
+        <v>1669</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1605</v>
+        <v>1575</v>
       </c>
       <c r="O22">
-        <v>8512</v>
+        <v>3842</v>
       </c>
       <c r="P22">
-        <v>5726</v>
+        <v>1676</v>
       </c>
       <c r="Q22">
-        <v>-1281</v>
+        <v>1053</v>
       </c>
       <c r="R22">
-        <v>42490</v>
+        <v>38745</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="T22">
-        <v>-1086</v>
+        <v>2504</v>
       </c>
       <c r="U22">
-        <v>1267</v>
+        <v>1208</v>
       </c>
       <c r="V22">
-        <v>-43</v>
+        <v>1311</v>
       </c>
       <c r="W22">
-        <v>-173.08</v>
+        <v>-60</v>
       </c>
       <c r="X22">
-        <v>-1035</v>
+        <v>-159</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>152</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42581</v>
+        <v>38836</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="D23">
-        <v>2890</v>
+        <v>2077</v>
       </c>
       <c r="E23">
-        <v>266</v>
+        <v>126.80200000000001</v>
       </c>
       <c r="F23">
-        <v>1113</v>
+        <v>789</v>
       </c>
       <c r="G23">
-        <v>2960</v>
+        <v>2449.2689999999998</v>
       </c>
       <c r="H23">
-        <v>7541</v>
+        <v>6051.5940000000001</v>
       </c>
       <c r="I23">
-        <v>793</v>
+        <v>511.77</v>
       </c>
       <c r="J23">
-        <v>5706</v>
+        <v>1669.4870000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1819</v>
+        <v>1245.365</v>
       </c>
       <c r="O23">
-        <v>8670</v>
+        <v>3514.759</v>
       </c>
       <c r="P23">
-        <v>5719</v>
+        <v>1669.4870000000001</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>-486</v>
       </c>
       <c r="R23">
-        <v>42581</v>
+        <v>38836</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-1129</v>
+        <v>2536.835</v>
       </c>
       <c r="U23">
-        <v>1273</v>
+        <v>722.41600000000005</v>
       </c>
       <c r="V23">
-        <v>551</v>
+        <v>-289</v>
       </c>
       <c r="W23">
-        <v>-172.99700000000001</v>
+        <v>-59</v>
       </c>
       <c r="X23">
-        <v>-351</v>
+        <v>-74</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>252</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42672</v>
+        <v>38927</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>2581</v>
+        <v>2454</v>
       </c>
       <c r="E24">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="F24">
-        <v>1025</v>
+        <v>853</v>
       </c>
       <c r="G24">
-        <v>2886</v>
+        <v>2552</v>
       </c>
       <c r="H24">
-        <v>7663</v>
+        <v>6189</v>
       </c>
       <c r="I24">
-        <v>962</v>
+        <v>594</v>
       </c>
       <c r="J24">
-        <v>5701</v>
+        <v>1665</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2007</v>
+        <v>1321</v>
       </c>
       <c r="O24">
-        <v>8851</v>
+        <v>3594</v>
       </c>
       <c r="P24">
-        <v>5724</v>
+        <v>1665</v>
       </c>
       <c r="Q24">
-        <v>-619</v>
+        <v>-71</v>
       </c>
       <c r="R24">
-        <v>42672</v>
+        <v>38927</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-1188</v>
+        <v>2595</v>
       </c>
       <c r="U24">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="V24">
-        <v>-97</v>
+        <v>130</v>
       </c>
       <c r="W24">
-        <v>-173</v>
+        <v>-60</v>
       </c>
       <c r="X24">
-        <v>-195</v>
+        <v>-69</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42763</v>
+        <v>39018</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>632</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>4489</v>
+        <v>2115</v>
       </c>
       <c r="E25">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="F25">
-        <v>2622</v>
+        <v>759</v>
       </c>
       <c r="G25">
-        <v>3465</v>
+        <v>2892</v>
       </c>
       <c r="H25">
-        <v>8170</v>
+        <v>6627</v>
       </c>
       <c r="I25">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="J25">
-        <v>5700</v>
+        <v>1666</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2678,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2014</v>
+        <v>1759</v>
       </c>
       <c r="O25">
-        <v>8897</v>
+        <v>4039</v>
       </c>
       <c r="P25">
-        <v>5736</v>
+        <v>1898</v>
       </c>
       <c r="Q25">
-        <v>1280</v>
+        <v>-473</v>
       </c>
       <c r="R25">
-        <v>42763</v>
+        <v>39018</v>
       </c>
       <c r="S25">
-        <v>24600</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>-727</v>
+        <v>2588</v>
       </c>
       <c r="U25">
-        <v>1934</v>
+        <v>178</v>
       </c>
       <c r="V25">
-        <v>1579</v>
+        <v>-448</v>
       </c>
       <c r="W25">
-        <v>-172.00299999999999</v>
+        <v>-59</v>
       </c>
       <c r="X25">
-        <v>-184</v>
+        <v>142</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>632</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42854</v>
+        <v>39116</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="D26">
-        <v>2437</v>
+        <v>4025</v>
       </c>
       <c r="E26">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="F26">
-        <v>903</v>
+        <v>2215</v>
       </c>
       <c r="G26">
-        <v>3152</v>
+        <v>2771</v>
       </c>
       <c r="H26">
-        <v>7882</v>
+        <v>7093</v>
       </c>
       <c r="I26">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="J26">
-        <v>5702</v>
+        <v>1665</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2758,84 +2881,84 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1831</v>
+        <v>1709</v>
       </c>
       <c r="O26">
-        <v>8717</v>
+        <v>4067</v>
       </c>
       <c r="P26">
-        <v>5746</v>
+        <v>1673</v>
       </c>
       <c r="Q26">
-        <v>-379</v>
+        <v>322</v>
       </c>
       <c r="R26">
-        <v>42854</v>
+        <v>39116</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="T26">
-        <v>-835</v>
+        <v>3026</v>
       </c>
       <c r="U26">
-        <v>1555</v>
+        <v>500</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>1207</v>
       </c>
       <c r="W26">
-        <v>-172</v>
+        <v>-60</v>
       </c>
       <c r="X26">
-        <v>-230</v>
+        <v>-214</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>94</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42945</v>
+        <v>39207</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>2755</v>
+        <v>2311</v>
       </c>
       <c r="E27">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="F27">
-        <v>1028</v>
+        <v>794</v>
       </c>
       <c r="G27">
-        <v>2957</v>
+        <v>2570</v>
       </c>
       <c r="H27">
-        <v>7763</v>
+        <v>7034</v>
       </c>
       <c r="I27">
-        <v>758</v>
+        <v>476</v>
       </c>
       <c r="J27">
-        <v>5704</v>
+        <v>1665</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2844,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1758</v>
+        <v>1467</v>
       </c>
       <c r="O27">
-        <v>8675</v>
+        <v>3947</v>
       </c>
       <c r="P27">
-        <v>5768</v>
+        <v>1921</v>
       </c>
       <c r="Q27">
-        <v>-195</v>
+        <v>-306</v>
       </c>
       <c r="R27">
-        <v>42945</v>
+        <v>39207</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-912</v>
+        <v>3087</v>
       </c>
       <c r="U27">
-        <v>1360</v>
+        <v>194</v>
       </c>
       <c r="V27">
-        <v>214</v>
+        <v>-336</v>
       </c>
       <c r="W27">
-        <v>-172</v>
+        <v>-60</v>
       </c>
       <c r="X27">
-        <v>-219</v>
+        <v>232</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>139</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>43036</v>
+        <v>39298</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="D28">
-        <v>2618</v>
+        <v>2624</v>
       </c>
       <c r="E28">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F28">
-        <v>989</v>
+        <v>811</v>
       </c>
       <c r="G28">
-        <v>2930</v>
+        <v>3222</v>
       </c>
       <c r="H28">
-        <v>7816</v>
+        <v>7572</v>
       </c>
       <c r="I28">
-        <v>1037</v>
+        <v>611</v>
       </c>
       <c r="J28">
-        <v>5705</v>
+        <v>2908</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2019</v>
+        <v>1459</v>
       </c>
       <c r="O28">
-        <v>8935</v>
+        <v>5099</v>
       </c>
       <c r="P28">
-        <v>5785</v>
+        <v>2908</v>
       </c>
       <c r="Q28">
-        <v>-625</v>
+        <v>999</v>
       </c>
       <c r="R28">
-        <v>43036</v>
+        <v>39298</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-1119</v>
+        <v>2473</v>
       </c>
       <c r="U28">
-        <v>735</v>
+        <v>1193</v>
       </c>
       <c r="V28">
-        <v>-83</v>
+        <v>300</v>
       </c>
       <c r="W28">
-        <v>-172</v>
+        <v>-60</v>
       </c>
       <c r="X28">
-        <v>-309</v>
+        <v>175</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AA28">
-        <v>86</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43134</v>
+        <v>39389</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>664</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>4823</v>
+        <v>1923</v>
       </c>
       <c r="E29">
-        <v>310</v>
+        <v>462</v>
       </c>
       <c r="F29">
-        <v>2749</v>
+        <v>608</v>
       </c>
       <c r="G29">
-        <v>3293</v>
+        <v>2792</v>
       </c>
       <c r="H29">
-        <v>8149</v>
+        <v>7336</v>
       </c>
       <c r="I29">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="J29">
-        <v>5707</v>
+        <v>2908</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2031</v>
+        <v>1450</v>
       </c>
       <c r="O29">
-        <v>8900</v>
+        <v>5198</v>
       </c>
       <c r="P29">
-        <v>5794</v>
+        <v>2908</v>
       </c>
       <c r="Q29">
-        <v>780</v>
+        <v>-975</v>
       </c>
       <c r="R29">
-        <v>43134</v>
+        <v>39389</v>
       </c>
       <c r="S29">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>-751</v>
+        <v>2138</v>
       </c>
       <c r="U29">
-        <v>1515</v>
+        <v>218</v>
       </c>
       <c r="V29">
-        <v>1268</v>
+        <v>-387</v>
       </c>
       <c r="W29">
-        <v>-170</v>
+        <v>-54</v>
       </c>
       <c r="X29">
-        <v>-369</v>
+        <v>-439</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>664</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43225</v>
+        <v>39480</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>389</v>
       </c>
       <c r="D30">
-        <v>2626</v>
+        <v>3276</v>
       </c>
       <c r="E30">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="F30">
-        <v>944</v>
+        <v>1846</v>
       </c>
       <c r="G30">
-        <v>2890</v>
+        <v>2919</v>
       </c>
       <c r="H30">
-        <v>7749</v>
+        <v>7437</v>
       </c>
       <c r="I30">
-        <v>717</v>
+        <v>517</v>
       </c>
       <c r="J30">
-        <v>5719</v>
+        <v>2905</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3090,81 +3213,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1858</v>
+        <v>1374</v>
       </c>
       <c r="O30">
-        <v>8718</v>
+        <v>5163</v>
       </c>
       <c r="P30">
-        <v>5808</v>
+        <v>2912</v>
       </c>
       <c r="Q30">
-        <v>-483</v>
+        <v>800</v>
       </c>
       <c r="R30">
-        <v>43225</v>
+        <v>39480</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="T30">
-        <v>-969</v>
+        <v>2274</v>
       </c>
       <c r="U30">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="V30">
-        <v>-79</v>
+        <v>1188</v>
       </c>
       <c r="W30">
-        <v>-168</v>
+        <v>-53</v>
       </c>
       <c r="X30">
-        <v>-243</v>
+        <v>-247</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>48</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43316</v>
+        <v>39571</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31">
-        <v>2984</v>
+        <v>1925</v>
       </c>
       <c r="E31">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F31">
-        <v>1243</v>
+        <v>641</v>
       </c>
       <c r="G31">
-        <v>2715</v>
+        <v>2600</v>
       </c>
       <c r="H31">
-        <v>7620</v>
+        <v>7034</v>
       </c>
       <c r="I31">
-        <v>821</v>
+        <v>428</v>
       </c>
       <c r="J31">
-        <v>5712</v>
+        <v>2905</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1856</v>
+        <v>1096</v>
       </c>
       <c r="O31">
-        <v>8742</v>
+        <v>4885</v>
       </c>
       <c r="P31">
-        <v>5777</v>
+        <v>2905</v>
       </c>
       <c r="Q31">
-        <v>-189</v>
+        <v>-259</v>
       </c>
       <c r="R31">
-        <v>43316</v>
+        <v>39571</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-1122</v>
+        <v>2149</v>
       </c>
       <c r="U31">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="V31">
-        <v>291</v>
+        <v>-112</v>
       </c>
       <c r="W31">
-        <v>-167</v>
+        <v>-52</v>
       </c>
       <c r="X31">
-        <v>-311</v>
+        <v>-178</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="AA31">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43407</v>
+        <v>39662</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-43</v>
+        <v>102</v>
       </c>
       <c r="D32">
-        <v>2775</v>
+        <v>2284</v>
       </c>
       <c r="E32">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F32">
-        <v>1191</v>
+        <v>761</v>
       </c>
       <c r="G32">
-        <v>2933</v>
+        <v>2821</v>
       </c>
       <c r="H32">
-        <v>7829</v>
+        <v>7236</v>
       </c>
       <c r="I32">
-        <v>1060</v>
+        <v>536</v>
       </c>
       <c r="J32">
-        <v>5814</v>
+        <v>2901</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2142</v>
+        <v>1245</v>
       </c>
       <c r="O32">
-        <v>9141</v>
+        <v>5037</v>
       </c>
       <c r="P32">
-        <v>5870</v>
+        <v>2901</v>
       </c>
       <c r="Q32">
-        <v>-495</v>
+        <v>219</v>
       </c>
       <c r="R32">
-        <v>43407</v>
+        <v>39662</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-1312</v>
+        <v>2199</v>
       </c>
       <c r="U32">
-        <v>348</v>
+        <v>978</v>
       </c>
       <c r="V32">
-        <v>-199</v>
+        <v>359</v>
       </c>
       <c r="W32">
-        <v>-165</v>
+        <v>-51</v>
       </c>
       <c r="X32">
-        <v>-89</v>
+        <v>-71</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-13</v>
+        <v>67</v>
       </c>
       <c r="AA32">
-        <v>-43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43498</v>
+        <v>39753</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>540</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>4852</v>
+        <v>1843</v>
       </c>
       <c r="E33">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F33">
-        <v>2192</v>
+        <v>580</v>
       </c>
       <c r="G33">
-        <v>3260</v>
+        <v>2739</v>
       </c>
       <c r="H33">
-        <v>8090</v>
+        <v>7081</v>
       </c>
       <c r="I33">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="J33">
-        <v>5739</v>
+        <v>2897</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1986</v>
+        <v>1350</v>
       </c>
       <c r="O33">
-        <v>8955</v>
+        <v>5127</v>
       </c>
       <c r="P33">
-        <v>5838</v>
+        <v>2897</v>
       </c>
       <c r="Q33">
-        <v>1065</v>
+        <v>-601</v>
       </c>
       <c r="R33">
-        <v>43498</v>
+        <v>39753</v>
       </c>
       <c r="S33">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>-865</v>
+        <v>1954</v>
       </c>
       <c r="U33">
-        <v>1413</v>
+        <v>377</v>
       </c>
       <c r="V33">
-        <v>1364</v>
+        <v>-244</v>
       </c>
       <c r="W33">
-        <v>-166</v>
+        <v>-50</v>
       </c>
       <c r="X33">
-        <v>-229</v>
+        <v>-218</v>
       </c>
       <c r="Y33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>540</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43589</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>2629</v>
+        <v>2991</v>
       </c>
       <c r="E34">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="F34">
-        <v>934</v>
+        <v>1512</v>
       </c>
       <c r="G34">
-        <v>2947</v>
+        <v>2867</v>
       </c>
       <c r="H34">
-        <v>10998</v>
+        <v>6972</v>
       </c>
       <c r="I34">
-        <v>688</v>
+        <v>494</v>
       </c>
       <c r="J34">
-        <v>5749</v>
+        <v>2927</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3422,81 +3545,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>2197</v>
+        <v>1255</v>
       </c>
       <c r="O34">
-        <v>11896</v>
+        <v>5097</v>
       </c>
       <c r="P34">
-        <v>9522</v>
+        <v>2927</v>
       </c>
       <c r="Q34">
-        <v>-267</v>
+        <v>796</v>
       </c>
       <c r="R34">
-        <v>43589</v>
+        <v>39844</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="T34">
-        <v>-898</v>
+        <v>1875</v>
       </c>
       <c r="U34">
-        <v>1146</v>
+        <v>1173</v>
       </c>
       <c r="V34">
-        <v>-73</v>
+        <v>951</v>
       </c>
       <c r="W34">
-        <v>-83</v>
+        <v>-48</v>
       </c>
       <c r="X34">
-        <v>-86</v>
+        <v>-95</v>
       </c>
       <c r="Y34">
-        <v>3251</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA34">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43680</v>
+        <v>39935</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>2902</v>
+        <v>1725</v>
       </c>
       <c r="E35">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="F35">
-        <v>983</v>
+        <v>548</v>
       </c>
       <c r="G35">
-        <v>2653</v>
+        <v>2616</v>
       </c>
       <c r="H35">
-        <v>10618</v>
+        <v>6680</v>
       </c>
       <c r="I35">
-        <v>763</v>
+        <v>410</v>
       </c>
       <c r="J35">
-        <v>5475</v>
+        <v>2897</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,161 +3631,161 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2216</v>
+        <v>1016</v>
       </c>
       <c r="O35">
-        <v>11547</v>
+        <v>4841</v>
       </c>
       <c r="P35">
-        <v>9194</v>
+        <v>2897</v>
       </c>
       <c r="Q35">
-        <v>-293</v>
+        <v>-237</v>
       </c>
       <c r="R35">
-        <v>43680</v>
+        <v>39935</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-929</v>
+        <v>1839</v>
       </c>
       <c r="U35">
-        <v>853</v>
+        <v>936</v>
       </c>
       <c r="V35">
-        <v>235</v>
+        <v>-118</v>
       </c>
       <c r="W35">
-        <v>-83</v>
+        <v>-48</v>
       </c>
       <c r="X35">
-        <v>-397</v>
+        <v>-67</v>
       </c>
       <c r="Y35">
-        <v>3181</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43771</v>
+        <v>40026</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-252</v>
+        <v>74</v>
       </c>
       <c r="D36">
-        <v>2677</v>
+        <v>2067</v>
       </c>
       <c r="E36">
+        <v>230</v>
+      </c>
+      <c r="F36">
+        <v>668</v>
+      </c>
+      <c r="G36">
+        <v>3133</v>
+      </c>
+      <c r="H36">
+        <v>7185</v>
+      </c>
+      <c r="I36">
+        <v>508</v>
+      </c>
+      <c r="J36">
+        <v>3251</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1098</v>
+      </c>
+      <c r="O36">
+        <v>5309</v>
+      </c>
+      <c r="P36">
+        <v>3251</v>
+      </c>
+      <c r="Q36">
+        <v>614</v>
+      </c>
+      <c r="R36">
+        <v>40026</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1876</v>
+      </c>
+      <c r="U36">
+        <v>1550</v>
+      </c>
+      <c r="V36">
+        <v>362</v>
+      </c>
+      <c r="W36">
+        <v>-48</v>
+      </c>
+      <c r="X36">
         <v>295</v>
       </c>
-      <c r="F36">
-        <v>959</v>
-      </c>
-      <c r="G36">
-        <v>2926</v>
-      </c>
-      <c r="H36">
-        <v>10630</v>
-      </c>
-      <c r="I36">
-        <v>1024</v>
-      </c>
-      <c r="J36">
-        <v>5477</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>2543</v>
-      </c>
-      <c r="O36">
-        <v>11868</v>
-      </c>
-      <c r="P36">
-        <v>9143</v>
-      </c>
-      <c r="Q36">
-        <v>-513</v>
-      </c>
-      <c r="R36">
-        <v>43771</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>-1238</v>
-      </c>
-      <c r="U36">
-        <v>340</v>
-      </c>
-      <c r="V36">
-        <v>-252</v>
-      </c>
-      <c r="W36">
-        <v>-83</v>
-      </c>
-      <c r="X36">
-        <v>-87</v>
-      </c>
       <c r="Y36">
-        <v>3123</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>-252</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43862</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-192</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>4707</v>
+        <v>1777</v>
       </c>
       <c r="E37">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F37">
-        <v>2672</v>
+        <v>563</v>
       </c>
       <c r="G37">
-        <v>3245</v>
+        <v>2914</v>
       </c>
       <c r="H37">
-        <v>10125</v>
+        <v>6935</v>
       </c>
       <c r="I37">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="J37">
-        <v>5487</v>
+        <v>2924</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,161 +3797,161 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2372</v>
+        <v>1237</v>
       </c>
       <c r="O37">
-        <v>11620</v>
+        <v>5070</v>
       </c>
       <c r="P37">
-        <v>9099</v>
+        <v>2924</v>
       </c>
       <c r="Q37">
-        <v>1159</v>
+        <v>-582</v>
       </c>
       <c r="R37">
-        <v>43862</v>
+        <v>40117</v>
       </c>
       <c r="S37">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>-1495</v>
+        <v>1865</v>
       </c>
       <c r="U37">
-        <v>1499</v>
+        <v>968</v>
       </c>
       <c r="V37">
-        <v>1326</v>
+        <v>-114</v>
       </c>
       <c r="W37">
-        <v>-83</v>
+        <v>-49</v>
       </c>
       <c r="X37">
-        <v>-96</v>
+        <v>-414</v>
       </c>
       <c r="Y37">
-        <v>3065</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA37">
-        <v>-192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43953</v>
+        <v>40208</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-297</v>
+        <v>356</v>
       </c>
       <c r="D38">
-        <v>1654</v>
+        <v>3063</v>
       </c>
       <c r="E38">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F38">
-        <v>385</v>
+        <v>1755</v>
       </c>
       <c r="G38">
-        <v>2849</v>
+        <v>3250</v>
       </c>
       <c r="H38">
-        <v>9439</v>
+        <v>7173</v>
       </c>
       <c r="I38">
-        <v>715</v>
+        <v>488</v>
       </c>
       <c r="J38">
-        <v>5034</v>
+        <v>2767</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-950</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>-69</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2683</v>
+        <v>1322</v>
       </c>
       <c r="O38">
-        <v>11297</v>
+        <v>4989</v>
       </c>
       <c r="P38">
-        <v>9037</v>
+        <v>2769</v>
       </c>
       <c r="Q38">
-        <v>-542</v>
+        <v>836</v>
       </c>
       <c r="R38">
-        <v>43953</v>
+        <v>40208</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="T38">
-        <v>-1858</v>
+        <v>2184</v>
       </c>
       <c r="U38">
-        <v>957</v>
+        <v>1804</v>
       </c>
       <c r="V38">
-        <v>-342</v>
+        <v>1044</v>
       </c>
       <c r="W38">
-        <v>-83</v>
+        <v>-48</v>
       </c>
       <c r="X38">
-        <v>-138</v>
+        <v>-201</v>
       </c>
       <c r="Y38">
-        <v>2945</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>-297</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>44044</v>
+        <v>40299</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-49</v>
+        <v>113</v>
       </c>
       <c r="D39">
-        <v>2319</v>
+        <v>1932</v>
       </c>
       <c r="E39">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="F39">
-        <v>792</v>
+        <v>694</v>
       </c>
       <c r="G39">
-        <v>4505</v>
+        <v>2687</v>
       </c>
       <c r="H39">
-        <v>10880</v>
+        <v>6592</v>
       </c>
       <c r="I39">
-        <v>957</v>
+        <v>485</v>
       </c>
       <c r="J39">
-        <v>6269</v>
+        <v>2570</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3837,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N39">
-        <v>3433</v>
+        <v>1135</v>
       </c>
       <c r="O39">
-        <v>12784</v>
+        <v>4615</v>
       </c>
       <c r="P39">
-        <v>10051</v>
+        <v>2572</v>
       </c>
       <c r="Q39">
-        <v>1782</v>
+        <v>-616</v>
       </c>
       <c r="R39">
-        <v>44044</v>
+        <v>40299</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-1904</v>
+        <v>1977</v>
       </c>
       <c r="U39">
-        <v>2611</v>
+        <v>1188</v>
       </c>
       <c r="V39">
-        <v>628</v>
+        <v>-60</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="X39">
-        <v>1209</v>
+        <v>-570</v>
       </c>
       <c r="Y39">
-        <v>2698</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA39">
-        <v>-49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44135</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="D40">
-        <v>3055</v>
+        <v>2242</v>
       </c>
       <c r="E40">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="F40">
-        <v>1359</v>
+        <v>778</v>
       </c>
       <c r="G40">
-        <v>4927</v>
+        <v>2805</v>
       </c>
       <c r="H40">
-        <v>11161</v>
+        <v>6722</v>
       </c>
       <c r="I40">
-        <v>1101</v>
+        <v>559</v>
       </c>
       <c r="J40">
-        <v>6451</v>
+        <v>2566</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3330</v>
+        <v>1180</v>
       </c>
       <c r="O40">
-        <v>12725</v>
+        <v>4649</v>
       </c>
       <c r="P40">
-        <v>9653</v>
+        <v>2568</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="R40">
-        <v>44135</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-1564</v>
+        <v>2073</v>
       </c>
       <c r="U40">
-        <v>2622</v>
+        <v>1300</v>
       </c>
       <c r="V40">
-        <v>420</v>
+        <v>244</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="X40">
-        <v>-342</v>
+        <v>-117</v>
       </c>
       <c r="Y40">
-        <v>2566</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AA40">
-        <v>331</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44196</v>
+        <v>40481</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1983</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2981</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>6891</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2564</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,37 +4129,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>4847</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>2564</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-312</v>
       </c>
       <c r="R41">
-        <v>44196</v>
+        <v>40481</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>-103</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4045,90 +4168,3410 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40572</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>453</v>
+      </c>
+      <c r="D42">
+        <v>3456</v>
+      </c>
+      <c r="E42">
+        <v>232</v>
+      </c>
+      <c r="F42">
+        <v>1963</v>
+      </c>
+      <c r="G42">
+        <v>2592</v>
+      </c>
+      <c r="H42">
+        <v>6451</v>
+      </c>
+      <c r="I42">
+        <v>545</v>
+      </c>
+      <c r="J42">
+        <v>2564</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1504</v>
+      </c>
+      <c r="O42">
+        <v>4974</v>
+      </c>
+      <c r="P42">
+        <v>2564</v>
+      </c>
+      <c r="Q42">
+        <v>142</v>
+      </c>
+      <c r="R42">
+        <v>40572</v>
+      </c>
+      <c r="S42">
+        <v>17500</v>
+      </c>
+      <c r="T42">
+        <v>1477</v>
+      </c>
+      <c r="U42">
+        <v>1130</v>
+      </c>
+      <c r="V42">
+        <v>1203</v>
+      </c>
+      <c r="W42">
+        <v>-48.087000000000003</v>
+      </c>
+      <c r="X42">
+        <v>-1042</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>53</v>
+      </c>
+      <c r="AA42">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>165</v>
+      </c>
+      <c r="D43">
+        <v>2217</v>
+      </c>
+      <c r="E43">
+        <v>205</v>
+      </c>
+      <c r="F43">
+        <v>842</v>
+      </c>
+      <c r="G43">
+        <v>3164</v>
+      </c>
+      <c r="H43">
+        <v>7015</v>
+      </c>
+      <c r="I43">
+        <v>640</v>
+      </c>
+      <c r="J43">
+        <v>3595</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1389</v>
+      </c>
+      <c r="O43">
+        <v>5888</v>
+      </c>
+      <c r="P43">
+        <v>3595</v>
+      </c>
+      <c r="Q43">
+        <v>427</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1127</v>
+      </c>
+      <c r="U43">
+        <v>1557</v>
+      </c>
+      <c r="V43">
+        <v>-18</v>
+      </c>
+      <c r="W43">
+        <v>-64</v>
+      </c>
+      <c r="X43">
+        <v>420</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>99</v>
+      </c>
+      <c r="AA43">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40754</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>231</v>
+      </c>
+      <c r="D44">
+        <v>2458</v>
+      </c>
+      <c r="E44">
+        <v>241</v>
+      </c>
+      <c r="F44">
+        <v>902</v>
+      </c>
+      <c r="G44">
+        <v>2652</v>
+      </c>
+      <c r="H44">
+        <v>6500</v>
+      </c>
+      <c r="I44">
+        <v>646</v>
+      </c>
+      <c r="J44">
+        <v>3607</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1347</v>
+      </c>
+      <c r="O44">
+        <v>5875</v>
+      </c>
+      <c r="P44">
+        <v>3607</v>
+      </c>
+      <c r="Q44">
+        <v>-522</v>
+      </c>
+      <c r="R44">
+        <v>40754</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>625</v>
+      </c>
+      <c r="U44">
+        <v>1035</v>
+      </c>
+      <c r="V44">
+        <v>241</v>
+      </c>
+      <c r="W44">
+        <v>-63</v>
+      </c>
+      <c r="X44">
+        <v>-678</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40845</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>95</v>
+      </c>
+      <c r="D45">
+        <v>2174</v>
+      </c>
+      <c r="E45">
+        <v>298</v>
+      </c>
+      <c r="F45">
+        <v>785</v>
+      </c>
+      <c r="G45">
+        <v>2616</v>
+      </c>
+      <c r="H45">
+        <v>6517</v>
+      </c>
+      <c r="I45">
+        <v>800</v>
+      </c>
+      <c r="J45">
+        <v>3602</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1504</v>
+      </c>
+      <c r="O45">
+        <v>5996</v>
+      </c>
+      <c r="P45">
+        <v>3602</v>
+      </c>
+      <c r="Q45">
+        <v>-537</v>
+      </c>
+      <c r="R45">
+        <v>40845</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>521</v>
+      </c>
+      <c r="U45">
+        <v>498</v>
+      </c>
+      <c r="V45">
+        <v>-129</v>
+      </c>
+      <c r="W45">
+        <v>-60</v>
+      </c>
+      <c r="X45">
+        <v>-231</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40936</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>359</v>
+      </c>
+      <c r="D46">
+        <v>3515</v>
+      </c>
+      <c r="E46">
+        <v>218</v>
+      </c>
+      <c r="F46">
+        <v>2090</v>
+      </c>
+      <c r="G46">
+        <v>2368</v>
+      </c>
+      <c r="H46">
+        <v>6108</v>
+      </c>
+      <c r="I46">
+        <v>540</v>
+      </c>
+      <c r="J46">
+        <v>3541</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1526</v>
+      </c>
+      <c r="O46">
+        <v>5970</v>
+      </c>
+      <c r="P46">
+        <v>3598</v>
+      </c>
+      <c r="Q46">
+        <v>437</v>
+      </c>
+      <c r="R46">
+        <v>40936</v>
+      </c>
+      <c r="S46">
+        <v>18000</v>
+      </c>
+      <c r="T46">
+        <v>138</v>
+      </c>
+      <c r="U46">
+        <v>935</v>
+      </c>
+      <c r="V46">
+        <v>1172</v>
+      </c>
+      <c r="W46">
+        <v>-53.841999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-748</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41027</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>125</v>
+      </c>
+      <c r="D47">
+        <v>2154</v>
+      </c>
+      <c r="E47">
+        <v>158</v>
+      </c>
+      <c r="F47">
+        <v>902</v>
+      </c>
+      <c r="G47">
+        <v>2816</v>
+      </c>
+      <c r="H47">
+        <v>6616</v>
+      </c>
+      <c r="I47">
+        <v>536</v>
+      </c>
+      <c r="J47">
+        <v>4543</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1290</v>
+      </c>
+      <c r="O47">
+        <v>6747</v>
+      </c>
+      <c r="P47">
+        <v>4600</v>
+      </c>
+      <c r="Q47">
+        <v>351</v>
+      </c>
+      <c r="R47">
+        <v>41027</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-131</v>
+      </c>
+      <c r="U47">
+        <v>1286</v>
+      </c>
+      <c r="V47">
+        <v>-183</v>
+      </c>
+      <c r="W47">
+        <v>-73</v>
+      </c>
+      <c r="X47">
+        <v>656</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>143</v>
+      </c>
+      <c r="D48">
+        <v>2399</v>
+      </c>
+      <c r="E48">
+        <v>175</v>
+      </c>
+      <c r="F48">
+        <v>942</v>
+      </c>
+      <c r="G48">
+        <v>2716</v>
+      </c>
+      <c r="H48">
+        <v>6589</v>
+      </c>
+      <c r="I48">
+        <v>624</v>
+      </c>
+      <c r="J48">
+        <v>4533</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1400</v>
+      </c>
+      <c r="O48">
+        <v>6834</v>
+      </c>
+      <c r="P48">
+        <v>4590</v>
+      </c>
+      <c r="Q48">
+        <v>-93</v>
+      </c>
+      <c r="R48">
+        <v>41118</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-245</v>
+      </c>
+      <c r="U48">
+        <v>1193</v>
+      </c>
+      <c r="V48">
+        <v>388</v>
+      </c>
+      <c r="W48">
+        <v>-73</v>
+      </c>
+      <c r="X48">
+        <v>-285</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <v>2050</v>
+      </c>
+      <c r="E49">
+        <v>225</v>
+      </c>
+      <c r="F49">
+        <v>835</v>
+      </c>
+      <c r="G49">
+        <v>2485</v>
+      </c>
+      <c r="H49">
+        <v>6427</v>
+      </c>
+      <c r="I49">
+        <v>732</v>
+      </c>
+      <c r="J49">
+        <v>4537</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1512</v>
+      </c>
+      <c r="O49">
+        <v>6942</v>
+      </c>
+      <c r="P49">
+        <v>4594</v>
+      </c>
+      <c r="Q49">
+        <v>-646</v>
+      </c>
+      <c r="R49">
+        <v>41209</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-515</v>
+      </c>
+      <c r="U49">
+        <v>547</v>
+      </c>
+      <c r="V49">
+        <v>-130</v>
+      </c>
+      <c r="W49">
+        <v>-74</v>
+      </c>
+      <c r="X49">
+        <v>-364</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41307</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>411</v>
+      </c>
+      <c r="D50">
+        <v>3856</v>
+      </c>
+      <c r="E50">
+        <v>203</v>
+      </c>
+      <c r="F50">
+        <v>2325</v>
+      </c>
+      <c r="G50">
+        <v>2205</v>
+      </c>
+      <c r="H50">
+        <v>6019</v>
+      </c>
+      <c r="I50">
+        <v>541</v>
+      </c>
+      <c r="J50">
+        <v>4536</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1538</v>
+      </c>
+      <c r="O50">
+        <v>7033</v>
+      </c>
+      <c r="P50">
+        <v>4536</v>
+      </c>
+      <c r="Q50">
+        <v>226</v>
+      </c>
+      <c r="R50">
+        <v>41307</v>
+      </c>
+      <c r="S50">
+        <v>19600</v>
+      </c>
+      <c r="T50">
+        <v>-1014</v>
+      </c>
+      <c r="U50">
+        <v>773</v>
+      </c>
+      <c r="V50">
+        <v>1276</v>
+      </c>
+      <c r="W50">
+        <v>-69.8</v>
+      </c>
+      <c r="X50">
+        <v>-989</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>35</v>
+      </c>
+      <c r="AA50">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>143</v>
+      </c>
+      <c r="D51">
+        <v>2268</v>
+      </c>
+      <c r="E51">
+        <v>175</v>
+      </c>
+      <c r="F51">
+        <v>941</v>
+      </c>
+      <c r="G51">
+        <v>1904</v>
+      </c>
+      <c r="H51">
+        <v>5776</v>
+      </c>
+      <c r="I51">
+        <v>561</v>
+      </c>
+      <c r="J51">
+        <v>4533</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1270</v>
+      </c>
+      <c r="O51">
+        <v>6770</v>
+      </c>
+      <c r="P51">
+        <v>4533</v>
+      </c>
+      <c r="Q51">
+        <v>-391</v>
+      </c>
+      <c r="R51">
+        <v>41398</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-994</v>
+      </c>
+      <c r="U51">
+        <v>382</v>
+      </c>
+      <c r="V51">
+        <v>-120</v>
+      </c>
+      <c r="W51">
+        <v>-87</v>
+      </c>
+      <c r="X51">
+        <v>-112</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41489</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>178</v>
+      </c>
+      <c r="D52">
+        <v>2516</v>
+      </c>
+      <c r="E52">
+        <v>197</v>
+      </c>
+      <c r="F52">
+        <v>989</v>
+      </c>
+      <c r="G52">
+        <v>2098</v>
+      </c>
+      <c r="H52">
+        <v>6072</v>
+      </c>
+      <c r="I52">
+        <v>681</v>
+      </c>
+      <c r="J52">
+        <v>4518</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1485</v>
+      </c>
+      <c r="O52">
+        <v>6933</v>
+      </c>
+      <c r="P52">
+        <v>4518</v>
+      </c>
+      <c r="Q52">
+        <v>169</v>
+      </c>
+      <c r="R52">
+        <v>41489</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-861</v>
+      </c>
+      <c r="U52">
+        <v>551</v>
+      </c>
+      <c r="V52">
+        <v>474</v>
+      </c>
+      <c r="W52">
+        <v>-87</v>
+      </c>
+      <c r="X52">
+        <v>-82</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41580</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>2171</v>
+      </c>
+      <c r="E53">
+        <v>245</v>
+      </c>
+      <c r="F53">
+        <v>857</v>
+      </c>
+      <c r="G53">
+        <v>2580</v>
+      </c>
+      <c r="H53">
+        <v>6636</v>
+      </c>
+      <c r="I53">
+        <v>799</v>
+      </c>
+      <c r="J53">
+        <v>4802</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1734</v>
+      </c>
+      <c r="O53">
+        <v>7456</v>
+      </c>
+      <c r="P53">
+        <v>5018</v>
+      </c>
+      <c r="Q53">
+        <v>-126</v>
+      </c>
+      <c r="R53">
+        <v>41580</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-820</v>
+      </c>
+      <c r="U53">
+        <v>425</v>
+      </c>
+      <c r="V53">
+        <v>-385</v>
+      </c>
+      <c r="W53">
+        <v>-87</v>
+      </c>
+      <c r="X53">
+        <v>426</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>46</v>
+      </c>
+      <c r="AA53">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>490</v>
+      </c>
+      <c r="D54">
+        <v>3818</v>
+      </c>
+      <c r="E54">
+        <v>244</v>
+      </c>
+      <c r="F54">
+        <v>2183</v>
+      </c>
+      <c r="G54">
+        <v>3150</v>
+      </c>
+      <c r="H54">
+        <v>7198</v>
+      </c>
+      <c r="I54">
+        <v>599</v>
+      </c>
+      <c r="J54">
+        <v>4774</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1826</v>
+      </c>
+      <c r="O54">
+        <v>7567</v>
+      </c>
+      <c r="P54">
+        <v>4989</v>
+      </c>
+      <c r="Q54">
+        <v>1094</v>
+      </c>
+      <c r="R54">
+        <v>41671</v>
+      </c>
+      <c r="S54">
+        <v>20800</v>
+      </c>
+      <c r="T54">
+        <v>-369</v>
+      </c>
+      <c r="U54">
+        <v>1519</v>
+      </c>
+      <c r="V54">
+        <v>1279</v>
+      </c>
+      <c r="W54">
+        <v>-88</v>
+      </c>
+      <c r="X54">
+        <v>-78</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41762</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>157</v>
+      </c>
+      <c r="D55">
+        <v>2391</v>
+      </c>
+      <c r="E55">
+        <v>216</v>
+      </c>
+      <c r="F55">
+        <v>982</v>
+      </c>
+      <c r="G55">
+        <v>2585</v>
+      </c>
+      <c r="H55">
+        <v>6663</v>
+      </c>
+      <c r="I55">
+        <v>555</v>
+      </c>
+      <c r="J55">
+        <v>4779</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1515</v>
+      </c>
+      <c r="O55">
+        <v>7272</v>
+      </c>
+      <c r="P55">
+        <v>4993</v>
+      </c>
+      <c r="Q55">
+        <v>-607</v>
+      </c>
+      <c r="R55">
+        <v>41762</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>-609</v>
+      </c>
+      <c r="U55">
+        <v>912</v>
+      </c>
+      <c r="V55">
+        <v>-89</v>
+      </c>
+      <c r="W55">
+        <v>-99.462999999999994</v>
+      </c>
+      <c r="X55">
+        <v>-383</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41853</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>188</v>
+      </c>
+      <c r="D56">
+        <v>2675</v>
+      </c>
+      <c r="E56">
+        <v>233</v>
+      </c>
+      <c r="F56">
+        <v>1044</v>
+      </c>
+      <c r="G56">
+        <v>2699</v>
+      </c>
+      <c r="H56">
+        <v>6870</v>
+      </c>
+      <c r="I56">
+        <v>622</v>
+      </c>
+      <c r="J56">
+        <v>4784</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1580</v>
+      </c>
+      <c r="O56">
+        <v>7373</v>
+      </c>
+      <c r="P56">
+        <v>4998</v>
+      </c>
+      <c r="Q56">
+        <v>235</v>
+      </c>
+      <c r="R56">
+        <v>41853</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>-503</v>
+      </c>
+      <c r="U56">
+        <v>1147</v>
+      </c>
+      <c r="V56">
+        <v>535</v>
+      </c>
+      <c r="W56">
+        <v>-99</v>
+      </c>
+      <c r="X56">
+        <v>-102</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>132</v>
+      </c>
+      <c r="D57">
+        <v>2319</v>
+      </c>
+      <c r="E57">
+        <v>274</v>
+      </c>
+      <c r="F57">
+        <v>947</v>
+      </c>
+      <c r="G57">
+        <v>2849</v>
+      </c>
+      <c r="H57">
+        <v>7149</v>
+      </c>
+      <c r="I57">
+        <v>837</v>
+      </c>
+      <c r="J57">
+        <v>4769</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1799</v>
+      </c>
+      <c r="O57">
+        <v>7582</v>
+      </c>
+      <c r="P57">
+        <v>4982</v>
+      </c>
+      <c r="Q57">
+        <v>-402</v>
+      </c>
+      <c r="R57">
+        <v>41944</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-433</v>
+      </c>
+      <c r="U57">
+        <v>745</v>
+      </c>
+      <c r="V57">
+        <v>-76</v>
+      </c>
+      <c r="W57">
+        <v>-100</v>
+      </c>
+      <c r="X57">
+        <v>-90</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>565</v>
+      </c>
+      <c r="D58">
+        <v>4069</v>
+      </c>
+      <c r="E58">
+        <v>252</v>
+      </c>
+      <c r="F58">
+        <v>2414</v>
+      </c>
+      <c r="G58">
+        <v>3199</v>
+      </c>
+      <c r="H58">
+        <v>7476</v>
+      </c>
+      <c r="I58">
+        <v>613</v>
+      </c>
+      <c r="J58">
+        <v>4722</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1679</v>
+      </c>
+      <c r="O58">
+        <v>7457</v>
+      </c>
+      <c r="P58">
+        <v>4722</v>
+      </c>
+      <c r="Q58">
+        <v>936</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>20200</v>
+      </c>
+      <c r="T58">
+        <v>19</v>
+      </c>
+      <c r="U58">
+        <v>1681</v>
+      </c>
+      <c r="V58">
+        <v>1416</v>
+      </c>
+      <c r="W58">
+        <v>-100</v>
+      </c>
+      <c r="X58">
+        <v>-344</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>250</v>
+      </c>
+      <c r="D59">
+        <v>2512</v>
+      </c>
+      <c r="E59">
+        <v>239</v>
+      </c>
+      <c r="F59">
+        <v>1056</v>
+      </c>
+      <c r="G59">
+        <v>2318</v>
+      </c>
+      <c r="H59">
+        <v>6638</v>
+      </c>
+      <c r="I59">
+        <v>639</v>
+      </c>
+      <c r="J59">
+        <v>4760</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1391</v>
+      </c>
+      <c r="O59">
+        <v>7244</v>
+      </c>
+      <c r="P59">
+        <v>4760</v>
+      </c>
+      <c r="Q59">
+        <v>-1032</v>
+      </c>
+      <c r="R59">
+        <v>42126</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-606</v>
+      </c>
+      <c r="U59">
+        <v>649</v>
+      </c>
+      <c r="V59">
+        <v>-156</v>
+      </c>
+      <c r="W59">
+        <v>-146.80000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-781</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>35</v>
+      </c>
+      <c r="AA59">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>203</v>
+      </c>
+      <c r="D60">
+        <v>2765</v>
+      </c>
+      <c r="E60">
+        <v>257</v>
+      </c>
+      <c r="F60">
+        <v>1114</v>
+      </c>
+      <c r="G60">
+        <v>2498</v>
+      </c>
+      <c r="H60">
+        <v>6804</v>
+      </c>
+      <c r="I60">
+        <v>725</v>
+      </c>
+      <c r="J60">
+        <v>4759</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1570</v>
+      </c>
+      <c r="O60">
+        <v>7451</v>
+      </c>
+      <c r="P60">
+        <v>4759</v>
+      </c>
+      <c r="Q60">
+        <v>131</v>
+      </c>
+      <c r="R60">
+        <v>42217</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>-647</v>
+      </c>
+      <c r="U60">
+        <v>780</v>
+      </c>
+      <c r="V60">
+        <v>531</v>
+      </c>
+      <c r="W60">
+        <v>-146</v>
+      </c>
+      <c r="X60">
+        <v>-310</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>164</v>
+      </c>
+      <c r="D61">
+        <v>2482</v>
+      </c>
+      <c r="E61">
+        <v>283</v>
+      </c>
+      <c r="F61">
+        <v>1031</v>
+      </c>
+      <c r="G61">
+        <v>3564</v>
+      </c>
+      <c r="H61">
+        <v>7969</v>
+      </c>
+      <c r="I61">
+        <v>913</v>
+      </c>
+      <c r="J61">
+        <v>5762</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1728</v>
+      </c>
+      <c r="O61">
+        <v>8626</v>
+      </c>
+      <c r="P61">
+        <v>5766</v>
+      </c>
+      <c r="Q61">
+        <v>531</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>-657</v>
+      </c>
+      <c r="U61">
+        <v>1311</v>
+      </c>
+      <c r="V61">
+        <v>-113</v>
+      </c>
+      <c r="W61">
+        <v>-146</v>
+      </c>
+      <c r="X61">
+        <v>789</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>40</v>
+      </c>
+      <c r="AA61">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>636</v>
+      </c>
+      <c r="D62">
+        <v>4395</v>
+      </c>
+      <c r="E62">
+        <v>261</v>
+      </c>
+      <c r="F62">
+        <v>2611</v>
+      </c>
+      <c r="G62">
+        <v>4156</v>
+      </c>
+      <c r="H62">
+        <v>8493</v>
+      </c>
+      <c r="I62">
+        <v>668</v>
+      </c>
+      <c r="J62">
+        <v>5715</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1875</v>
+      </c>
+      <c r="O62">
+        <v>8751</v>
+      </c>
+      <c r="P62">
+        <v>5721</v>
+      </c>
+      <c r="Q62">
+        <v>1237</v>
+      </c>
+      <c r="R62">
+        <v>42399</v>
+      </c>
+      <c r="S62">
+        <v>22900</v>
+      </c>
+      <c r="T62">
+        <v>-258</v>
+      </c>
+      <c r="U62">
+        <v>2548</v>
+      </c>
+      <c r="V62">
+        <v>1607</v>
+      </c>
+      <c r="W62">
+        <v>-145</v>
+      </c>
+      <c r="X62">
+        <v>-256</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>152</v>
+      </c>
+      <c r="D63">
+        <v>2614</v>
+      </c>
+      <c r="E63">
+        <v>249</v>
+      </c>
+      <c r="F63">
+        <v>1054</v>
+      </c>
+      <c r="G63">
+        <v>2991</v>
+      </c>
+      <c r="H63">
+        <v>7426</v>
+      </c>
+      <c r="I63">
+        <v>720</v>
+      </c>
+      <c r="J63">
+        <v>5718</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1605</v>
+      </c>
+      <c r="O63">
+        <v>8512</v>
+      </c>
+      <c r="P63">
+        <v>5726</v>
+      </c>
+      <c r="Q63">
+        <v>-1281</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-1086</v>
+      </c>
+      <c r="U63">
+        <v>1267</v>
+      </c>
+      <c r="V63">
+        <v>-43</v>
+      </c>
+      <c r="W63">
+        <v>-173.08</v>
+      </c>
+      <c r="X63">
+        <v>-1035</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>11</v>
+      </c>
+      <c r="AA63">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>253</v>
+      </c>
+      <c r="D64">
+        <v>2890</v>
+      </c>
+      <c r="E64">
+        <v>266</v>
+      </c>
+      <c r="F64">
+        <v>1113</v>
+      </c>
+      <c r="G64">
+        <v>2960</v>
+      </c>
+      <c r="H64">
+        <v>7541</v>
+      </c>
+      <c r="I64">
+        <v>793</v>
+      </c>
+      <c r="J64">
+        <v>5706</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1819</v>
+      </c>
+      <c r="O64">
+        <v>8670</v>
+      </c>
+      <c r="P64">
+        <v>5719</v>
+      </c>
+      <c r="Q64">
+        <v>6</v>
+      </c>
+      <c r="R64">
+        <v>42581</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-1129</v>
+      </c>
+      <c r="U64">
+        <v>1273</v>
+      </c>
+      <c r="V64">
+        <v>551</v>
+      </c>
+      <c r="W64">
+        <v>-172.99700000000001</v>
+      </c>
+      <c r="X64">
+        <v>-351</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>110</v>
+      </c>
+      <c r="AA64">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42672</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>121</v>
+      </c>
+      <c r="D65">
+        <v>2581</v>
+      </c>
+      <c r="E65">
+        <v>325</v>
+      </c>
+      <c r="F65">
+        <v>1025</v>
+      </c>
+      <c r="G65">
+        <v>2886</v>
+      </c>
+      <c r="H65">
+        <v>7663</v>
+      </c>
+      <c r="I65">
+        <v>962</v>
+      </c>
+      <c r="J65">
+        <v>5701</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2007</v>
+      </c>
+      <c r="O65">
+        <v>8851</v>
+      </c>
+      <c r="P65">
+        <v>5724</v>
+      </c>
+      <c r="Q65">
+        <v>-619</v>
+      </c>
+      <c r="R65">
+        <v>42672</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-1188</v>
+      </c>
+      <c r="U65">
+        <v>654</v>
+      </c>
+      <c r="V65">
+        <v>-97</v>
+      </c>
+      <c r="W65">
+        <v>-173</v>
+      </c>
+      <c r="X65">
+        <v>-195</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>5</v>
+      </c>
+      <c r="AA65">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42763</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>632</v>
+      </c>
+      <c r="D66">
+        <v>4489</v>
+      </c>
+      <c r="E66">
+        <v>294</v>
+      </c>
+      <c r="F66">
+        <v>2622</v>
+      </c>
+      <c r="G66">
+        <v>3465</v>
+      </c>
+      <c r="H66">
+        <v>8170</v>
+      </c>
+      <c r="I66">
+        <v>683</v>
+      </c>
+      <c r="J66">
+        <v>5700</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2014</v>
+      </c>
+      <c r="O66">
+        <v>8897</v>
+      </c>
+      <c r="P66">
+        <v>5736</v>
+      </c>
+      <c r="Q66">
+        <v>1280</v>
+      </c>
+      <c r="R66">
+        <v>42763</v>
+      </c>
+      <c r="S66">
+        <v>24600</v>
+      </c>
+      <c r="T66">
+        <v>-727</v>
+      </c>
+      <c r="U66">
+        <v>1934</v>
+      </c>
+      <c r="V66">
+        <v>1579</v>
+      </c>
+      <c r="W66">
+        <v>-172.00299999999999</v>
+      </c>
+      <c r="X66">
+        <v>-184</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>3</v>
+      </c>
+      <c r="AA66">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42854</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>94</v>
+      </c>
+      <c r="D67">
+        <v>2437</v>
+      </c>
+      <c r="E67">
+        <v>213</v>
+      </c>
+      <c r="F67">
+        <v>903</v>
+      </c>
+      <c r="G67">
+        <v>3152</v>
+      </c>
+      <c r="H67">
+        <v>7882</v>
+      </c>
+      <c r="I67">
+        <v>664</v>
+      </c>
+      <c r="J67">
+        <v>5702</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67">
+        <v>1831</v>
+      </c>
+      <c r="O67">
+        <v>8717</v>
+      </c>
+      <c r="P67">
+        <v>5746</v>
+      </c>
+      <c r="Q67">
+        <v>-379</v>
+      </c>
+      <c r="R67">
+        <v>42854</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-835</v>
+      </c>
+      <c r="U67">
+        <v>1555</v>
+      </c>
+      <c r="V67">
+        <v>7</v>
+      </c>
+      <c r="W67">
+        <v>-172</v>
+      </c>
+      <c r="X67">
+        <v>-230</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>10</v>
+      </c>
+      <c r="AA67">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42945</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>2755</v>
+      </c>
+      <c r="E68">
+        <v>245</v>
+      </c>
+      <c r="F68">
+        <v>1028</v>
+      </c>
+      <c r="G68">
+        <v>2957</v>
+      </c>
+      <c r="H68">
+        <v>7763</v>
+      </c>
+      <c r="I68">
+        <v>758</v>
+      </c>
+      <c r="J68">
+        <v>5704</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1758</v>
+      </c>
+      <c r="O68">
+        <v>8675</v>
+      </c>
+      <c r="P68">
+        <v>5768</v>
+      </c>
+      <c r="Q68">
+        <v>-195</v>
+      </c>
+      <c r="R68">
+        <v>42945</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-912</v>
+      </c>
+      <c r="U68">
+        <v>1360</v>
+      </c>
+      <c r="V68">
+        <v>214</v>
+      </c>
+      <c r="W68">
+        <v>-172</v>
+      </c>
+      <c r="X68">
+        <v>-219</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>17</v>
+      </c>
+      <c r="AA68">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43036</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>86</v>
+      </c>
+      <c r="D69">
+        <v>2618</v>
+      </c>
+      <c r="E69">
+        <v>285</v>
+      </c>
+      <c r="F69">
+        <v>989</v>
+      </c>
+      <c r="G69">
+        <v>2930</v>
+      </c>
+      <c r="H69">
+        <v>7816</v>
+      </c>
+      <c r="I69">
+        <v>1037</v>
+      </c>
+      <c r="J69">
+        <v>5705</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2019</v>
+      </c>
+      <c r="O69">
+        <v>8935</v>
+      </c>
+      <c r="P69">
+        <v>5785</v>
+      </c>
+      <c r="Q69">
+        <v>-625</v>
+      </c>
+      <c r="R69">
+        <v>43036</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-1119</v>
+      </c>
+      <c r="U69">
+        <v>735</v>
+      </c>
+      <c r="V69">
+        <v>-83</v>
+      </c>
+      <c r="W69">
+        <v>-172</v>
+      </c>
+      <c r="X69">
+        <v>-309</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>664</v>
+      </c>
+      <c r="D70">
+        <v>4823</v>
+      </c>
+      <c r="E70">
+        <v>310</v>
+      </c>
+      <c r="F70">
+        <v>2749</v>
+      </c>
+      <c r="G70">
+        <v>3293</v>
+      </c>
+      <c r="H70">
+        <v>8149</v>
+      </c>
+      <c r="I70">
+        <v>717</v>
+      </c>
+      <c r="J70">
+        <v>5707</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2031</v>
+      </c>
+      <c r="O70">
+        <v>8900</v>
+      </c>
+      <c r="P70">
+        <v>5794</v>
+      </c>
+      <c r="Q70">
+        <v>780</v>
+      </c>
+      <c r="R70">
+        <v>43134</v>
+      </c>
+      <c r="S70">
+        <v>25200</v>
+      </c>
+      <c r="T70">
+        <v>-751</v>
+      </c>
+      <c r="U70">
+        <v>1515</v>
+      </c>
+      <c r="V70">
+        <v>1268</v>
+      </c>
+      <c r="W70">
+        <v>-170</v>
+      </c>
+      <c r="X70">
+        <v>-369</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-8</v>
+      </c>
+      <c r="AA70">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <v>2626</v>
+      </c>
+      <c r="E71">
+        <v>274</v>
+      </c>
+      <c r="F71">
+        <v>944</v>
+      </c>
+      <c r="G71">
+        <v>2890</v>
+      </c>
+      <c r="H71">
+        <v>7749</v>
+      </c>
+      <c r="I71">
+        <v>717</v>
+      </c>
+      <c r="J71">
+        <v>5719</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-8</v>
+      </c>
+      <c r="N71">
+        <v>1858</v>
+      </c>
+      <c r="O71">
+        <v>8718</v>
+      </c>
+      <c r="P71">
+        <v>5808</v>
+      </c>
+      <c r="Q71">
+        <v>-483</v>
+      </c>
+      <c r="R71">
+        <v>43225</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-969</v>
+      </c>
+      <c r="U71">
+        <v>1032</v>
+      </c>
+      <c r="V71">
+        <v>-79</v>
+      </c>
+      <c r="W71">
+        <v>-168</v>
+      </c>
+      <c r="X71">
+        <v>-243</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43316</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>99</v>
+      </c>
+      <c r="D72">
+        <v>2984</v>
+      </c>
+      <c r="E72">
+        <v>310</v>
+      </c>
+      <c r="F72">
+        <v>1243</v>
+      </c>
+      <c r="G72">
+        <v>2715</v>
+      </c>
+      <c r="H72">
+        <v>7620</v>
+      </c>
+      <c r="I72">
+        <v>821</v>
+      </c>
+      <c r="J72">
+        <v>5712</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1856</v>
+      </c>
+      <c r="O72">
+        <v>8742</v>
+      </c>
+      <c r="P72">
+        <v>5777</v>
+      </c>
+      <c r="Q72">
+        <v>-189</v>
+      </c>
+      <c r="R72">
+        <v>43316</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-1122</v>
+      </c>
+      <c r="U72">
+        <v>843</v>
+      </c>
+      <c r="V72">
+        <v>291</v>
+      </c>
+      <c r="W72">
+        <v>-167</v>
+      </c>
+      <c r="X72">
+        <v>-311</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>12</v>
+      </c>
+      <c r="AA72">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>-43</v>
+      </c>
+      <c r="D73">
+        <v>2775</v>
+      </c>
+      <c r="E73">
+        <v>321</v>
+      </c>
+      <c r="F73">
+        <v>1191</v>
+      </c>
+      <c r="G73">
+        <v>2933</v>
+      </c>
+      <c r="H73">
+        <v>7829</v>
+      </c>
+      <c r="I73">
+        <v>1060</v>
+      </c>
+      <c r="J73">
+        <v>5814</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2142</v>
+      </c>
+      <c r="O73">
+        <v>9141</v>
+      </c>
+      <c r="P73">
+        <v>5870</v>
+      </c>
+      <c r="Q73">
+        <v>-495</v>
+      </c>
+      <c r="R73">
+        <v>43407</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-1312</v>
+      </c>
+      <c r="U73">
+        <v>348</v>
+      </c>
+      <c r="V73">
+        <v>-199</v>
+      </c>
+      <c r="W73">
+        <v>-165</v>
+      </c>
+      <c r="X73">
+        <v>-89</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-13</v>
+      </c>
+      <c r="AA73">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43498</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>540</v>
+      </c>
+      <c r="D74">
+        <v>4852</v>
+      </c>
+      <c r="E74">
+        <v>367</v>
+      </c>
+      <c r="F74">
+        <v>2192</v>
+      </c>
+      <c r="G74">
+        <v>3260</v>
+      </c>
+      <c r="H74">
+        <v>8090</v>
+      </c>
+      <c r="I74">
+        <v>711</v>
+      </c>
+      <c r="J74">
+        <v>5739</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1986</v>
+      </c>
+      <c r="O74">
+        <v>8955</v>
+      </c>
+      <c r="P74">
+        <v>5838</v>
+      </c>
+      <c r="Q74">
+        <v>1065</v>
+      </c>
+      <c r="R74">
+        <v>43498</v>
+      </c>
+      <c r="S74">
+        <v>25500</v>
+      </c>
+      <c r="T74">
+        <v>-865</v>
+      </c>
+      <c r="U74">
+        <v>1413</v>
+      </c>
+      <c r="V74">
+        <v>1364</v>
+      </c>
+      <c r="W74">
+        <v>-166</v>
+      </c>
+      <c r="X74">
+        <v>-229</v>
+      </c>
+      <c r="Y74">
+        <v>19</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+      <c r="D75">
+        <v>2629</v>
+      </c>
+      <c r="E75">
+        <v>274</v>
+      </c>
+      <c r="F75">
+        <v>934</v>
+      </c>
+      <c r="G75">
+        <v>2947</v>
+      </c>
+      <c r="H75">
+        <v>10998</v>
+      </c>
+      <c r="I75">
+        <v>688</v>
+      </c>
+      <c r="J75">
+        <v>5749</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-14</v>
+      </c>
+      <c r="N75">
+        <v>2197</v>
+      </c>
+      <c r="O75">
+        <v>11896</v>
+      </c>
+      <c r="P75">
+        <v>9522</v>
+      </c>
+      <c r="Q75">
+        <v>-267</v>
+      </c>
+      <c r="R75">
+        <v>43589</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-898</v>
+      </c>
+      <c r="U75">
+        <v>1146</v>
+      </c>
+      <c r="V75">
+        <v>-73</v>
+      </c>
+      <c r="W75">
+        <v>-83</v>
+      </c>
+      <c r="X75">
+        <v>-86</v>
+      </c>
+      <c r="Y75">
+        <v>3251</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43680</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>2902</v>
+      </c>
+      <c r="E76">
+        <v>283</v>
+      </c>
+      <c r="F76">
+        <v>983</v>
+      </c>
+      <c r="G76">
+        <v>2653</v>
+      </c>
+      <c r="H76">
+        <v>10618</v>
+      </c>
+      <c r="I76">
+        <v>763</v>
+      </c>
+      <c r="J76">
+        <v>5475</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2216</v>
+      </c>
+      <c r="O76">
+        <v>11547</v>
+      </c>
+      <c r="P76">
+        <v>9194</v>
+      </c>
+      <c r="Q76">
+        <v>-293</v>
+      </c>
+      <c r="R76">
+        <v>43680</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-929</v>
+      </c>
+      <c r="U76">
+        <v>853</v>
+      </c>
+      <c r="V76">
+        <v>235</v>
+      </c>
+      <c r="W76">
+        <v>-83</v>
+      </c>
+      <c r="X76">
+        <v>-397</v>
+      </c>
+      <c r="Y76">
+        <v>3181</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-252</v>
+      </c>
+      <c r="D77">
+        <v>2677</v>
+      </c>
+      <c r="E77">
+        <v>295</v>
+      </c>
+      <c r="F77">
+        <v>959</v>
+      </c>
+      <c r="G77">
+        <v>2926</v>
+      </c>
+      <c r="H77">
+        <v>10630</v>
+      </c>
+      <c r="I77">
+        <v>1024</v>
+      </c>
+      <c r="J77">
+        <v>5477</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2543</v>
+      </c>
+      <c r="O77">
+        <v>11868</v>
+      </c>
+      <c r="P77">
+        <v>9143</v>
+      </c>
+      <c r="Q77">
+        <v>-513</v>
+      </c>
+      <c r="R77">
+        <v>43771</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-1238</v>
+      </c>
+      <c r="U77">
+        <v>340</v>
+      </c>
+      <c r="V77">
+        <v>-252</v>
+      </c>
+      <c r="W77">
+        <v>-83</v>
+      </c>
+      <c r="X77">
+        <v>-87</v>
+      </c>
+      <c r="Y77">
+        <v>3123</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>-192</v>
+      </c>
+      <c r="D78">
+        <v>4707</v>
+      </c>
+      <c r="E78">
+        <v>306</v>
+      </c>
+      <c r="F78">
+        <v>2672</v>
+      </c>
+      <c r="G78">
+        <v>3245</v>
+      </c>
+      <c r="H78">
+        <v>10125</v>
+      </c>
+      <c r="I78">
+        <v>647</v>
+      </c>
+      <c r="J78">
+        <v>5487</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2372</v>
+      </c>
+      <c r="O78">
+        <v>11620</v>
+      </c>
+      <c r="P78">
+        <v>9099</v>
+      </c>
+      <c r="Q78">
+        <v>1159</v>
+      </c>
+      <c r="R78">
+        <v>43862</v>
+      </c>
+      <c r="S78">
+        <v>25500</v>
+      </c>
+      <c r="T78">
+        <v>-1495</v>
+      </c>
+      <c r="U78">
+        <v>1499</v>
+      </c>
+      <c r="V78">
+        <v>1326</v>
+      </c>
+      <c r="W78">
+        <v>-83</v>
+      </c>
+      <c r="X78">
+        <v>-96</v>
+      </c>
+      <c r="Y78">
+        <v>3065</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-297</v>
+      </c>
+      <c r="D79">
+        <v>1654</v>
+      </c>
+      <c r="E79">
+        <v>229</v>
+      </c>
+      <c r="F79">
+        <v>385</v>
+      </c>
+      <c r="G79">
+        <v>2849</v>
+      </c>
+      <c r="H79">
+        <v>9439</v>
+      </c>
+      <c r="I79">
+        <v>715</v>
+      </c>
+      <c r="J79">
+        <v>5034</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-950</v>
+      </c>
+      <c r="M79">
+        <v>-69</v>
+      </c>
+      <c r="N79">
+        <v>2683</v>
+      </c>
+      <c r="O79">
+        <v>11297</v>
+      </c>
+      <c r="P79">
+        <v>9037</v>
+      </c>
+      <c r="Q79">
+        <v>-542</v>
+      </c>
+      <c r="R79">
+        <v>43953</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-1858</v>
+      </c>
+      <c r="U79">
+        <v>957</v>
+      </c>
+      <c r="V79">
+        <v>-342</v>
+      </c>
+      <c r="W79">
+        <v>-83</v>
+      </c>
+      <c r="X79">
+        <v>-138</v>
+      </c>
+      <c r="Y79">
+        <v>2945</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-49</v>
+      </c>
+      <c r="D80">
+        <v>2319</v>
+      </c>
+      <c r="E80">
+        <v>268</v>
+      </c>
+      <c r="F80">
+        <v>792</v>
+      </c>
+      <c r="G80">
+        <v>4505</v>
+      </c>
+      <c r="H80">
+        <v>10880</v>
+      </c>
+      <c r="I80">
+        <v>957</v>
+      </c>
+      <c r="J80">
+        <v>6269</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3433</v>
+      </c>
+      <c r="O80">
+        <v>12784</v>
+      </c>
+      <c r="P80">
+        <v>10051</v>
+      </c>
+      <c r="Q80">
+        <v>1782</v>
+      </c>
+      <c r="R80">
+        <v>44044</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-1904</v>
+      </c>
+      <c r="U80">
+        <v>2611</v>
+      </c>
+      <c r="V80">
+        <v>628</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1209</v>
+      </c>
+      <c r="Y80">
+        <v>2698</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>330</v>
+      </c>
+      <c r="D81">
+        <v>3055</v>
+      </c>
+      <c r="E81">
+        <v>297</v>
+      </c>
+      <c r="F81">
+        <v>1359</v>
+      </c>
+      <c r="G81">
+        <v>4927</v>
+      </c>
+      <c r="H81">
+        <v>11161</v>
+      </c>
+      <c r="I81">
+        <v>1101</v>
+      </c>
+      <c r="J81">
+        <v>6451</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3330</v>
+      </c>
+      <c r="O81">
+        <v>12725</v>
+      </c>
+      <c r="P81">
+        <v>9653</v>
+      </c>
+      <c r="Q81">
+        <v>11</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>-1564</v>
+      </c>
+      <c r="U81">
+        <v>2622</v>
+      </c>
+      <c r="V81">
+        <v>420</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-342</v>
+      </c>
+      <c r="Y81">
+        <v>2566</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44226</v>
       </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>4817.9399999999996</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>2306.92</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>9653</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>860</v>
+      </c>
+      <c r="D82">
+        <v>4818</v>
+      </c>
+      <c r="E82">
+        <v>269</v>
+      </c>
+      <c r="F82">
+        <v>3069</v>
+      </c>
+      <c r="G82">
+        <v>5579</v>
+      </c>
+      <c r="H82">
+        <v>11571</v>
+      </c>
+      <c r="I82">
+        <v>683</v>
+      </c>
+      <c r="J82">
+        <v>6366</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2826</v>
+      </c>
+      <c r="O82">
+        <v>12232</v>
+      </c>
+      <c r="P82">
+        <v>9479</v>
+      </c>
+      <c r="Q82">
+        <v>1183</v>
+      </c>
+      <c r="R82">
         <v>44226</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>-1564</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>860.33100000000002</v>
+      <c r="S82">
+        <v>22400</v>
+      </c>
+      <c r="T82">
+        <v>-661</v>
+      </c>
+      <c r="U82">
+        <v>3903</v>
+      </c>
+      <c r="V82">
+        <v>1333</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-119</v>
+      </c>
+      <c r="Y82">
+        <v>2507</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
